--- a/data/pca/factorExposure/factorExposure_2016-04-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01069233286638821</v>
+        <v>0.01413275885341992</v>
       </c>
       <c r="C2">
-        <v>0.05454535169964127</v>
+        <v>0.03790231828590905</v>
       </c>
       <c r="D2">
-        <v>-0.0441324181689418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05716865684626361</v>
+      </c>
+      <c r="E2">
+        <v>0.0907663227368995</v>
+      </c>
+      <c r="F2">
+        <v>-0.08651120704977723</v>
+      </c>
+      <c r="G2">
+        <v>-0.03034808236273427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04087419589495516</v>
+        <v>0.02536410654098738</v>
       </c>
       <c r="C3">
-        <v>0.1202604605535317</v>
+        <v>0.06621621331556823</v>
       </c>
       <c r="D3">
-        <v>-0.0830501855731136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07113310605594997</v>
+      </c>
+      <c r="E3">
+        <v>0.07403338071020649</v>
+      </c>
+      <c r="F3">
+        <v>0.02315241084555271</v>
+      </c>
+      <c r="G3">
+        <v>-0.04799064370334099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06341997382475666</v>
+        <v>0.06070519132039075</v>
       </c>
       <c r="C4">
-        <v>0.05988481491610606</v>
+        <v>0.06191734707482831</v>
       </c>
       <c r="D4">
-        <v>-0.02501343156097044</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05083594235088103</v>
+      </c>
+      <c r="E4">
+        <v>0.09080995647653597</v>
+      </c>
+      <c r="F4">
+        <v>-0.04083362251533873</v>
+      </c>
+      <c r="G4">
+        <v>-0.09321562606774551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04095725710355561</v>
+        <v>0.0370771421296436</v>
       </c>
       <c r="C6">
-        <v>0.03485682397557543</v>
+        <v>0.02587686268198068</v>
       </c>
       <c r="D6">
-        <v>-0.02915931781190216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05958950583858576</v>
+      </c>
+      <c r="E6">
+        <v>0.0898704864264504</v>
+      </c>
+      <c r="F6">
+        <v>-0.02676529527539417</v>
+      </c>
+      <c r="G6">
+        <v>-0.06712287848518944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02759968043062676</v>
+        <v>0.02145795222278176</v>
       </c>
       <c r="C7">
-        <v>0.04136695263437816</v>
+        <v>0.03592384194583297</v>
       </c>
       <c r="D7">
-        <v>0.00609056975784914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03711731073593419</v>
+      </c>
+      <c r="E7">
+        <v>0.06643492195693571</v>
+      </c>
+      <c r="F7">
+        <v>-0.06988764124957417</v>
+      </c>
+      <c r="G7">
+        <v>-0.09853025589129387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007438505104418087</v>
+        <v>0.005309219814866957</v>
       </c>
       <c r="C8">
-        <v>0.04039253523857318</v>
+        <v>0.0341240705806042</v>
       </c>
       <c r="D8">
-        <v>-0.02577641336827567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03162627056687877</v>
+      </c>
+      <c r="E8">
+        <v>0.062567144243646</v>
+      </c>
+      <c r="F8">
+        <v>-0.01967705961063554</v>
+      </c>
+      <c r="G8">
+        <v>-0.0370119124554972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03639306367128524</v>
+        <v>0.0392663795719985</v>
       </c>
       <c r="C9">
-        <v>0.04863437503677754</v>
+        <v>0.0503624651064289</v>
       </c>
       <c r="D9">
-        <v>-0.00961298374469979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03630195882143492</v>
+      </c>
+      <c r="E9">
+        <v>0.07425278580010945</v>
+      </c>
+      <c r="F9">
+        <v>-0.05324029163201426</v>
+      </c>
+      <c r="G9">
+        <v>-0.0878302292222131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07141214581868535</v>
+        <v>0.09756656962902416</v>
       </c>
       <c r="C10">
-        <v>-0.18924825698511</v>
+        <v>-0.1997929487879906</v>
       </c>
       <c r="D10">
-        <v>0.007294280575219587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01194468909492268</v>
+      </c>
+      <c r="E10">
+        <v>0.03277251407475305</v>
+      </c>
+      <c r="F10">
+        <v>-0.01666236263925012</v>
+      </c>
+      <c r="G10">
+        <v>-0.0365872760477048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04264168250337742</v>
+        <v>0.03775638694795171</v>
       </c>
       <c r="C11">
-        <v>0.0516205539128399</v>
+        <v>0.04747820586674235</v>
       </c>
       <c r="D11">
-        <v>-0.01341411740782247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03129515367072272</v>
+      </c>
+      <c r="E11">
+        <v>0.02968701015959907</v>
+      </c>
+      <c r="F11">
+        <v>-0.04025163413901237</v>
+      </c>
+      <c r="G11">
+        <v>-0.06868455091822359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04532613354750849</v>
+        <v>0.03992220387967752</v>
       </c>
       <c r="C12">
-        <v>0.04684404857632091</v>
+        <v>0.04518450010152136</v>
       </c>
       <c r="D12">
-        <v>-0.002493082505501532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02620809111392784</v>
+      </c>
+      <c r="E12">
+        <v>0.03614729509388738</v>
+      </c>
+      <c r="F12">
+        <v>-0.04253894233480936</v>
+      </c>
+      <c r="G12">
+        <v>-0.0664260019249161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01535723186178542</v>
+        <v>0.01274857003544486</v>
       </c>
       <c r="C13">
-        <v>0.05320721417108083</v>
+        <v>0.04140022237148815</v>
       </c>
       <c r="D13">
-        <v>-0.007970537666616141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04225930187812878</v>
+      </c>
+      <c r="E13">
+        <v>0.1030433123242711</v>
+      </c>
+      <c r="F13">
+        <v>-0.0598844651421621</v>
+      </c>
+      <c r="G13">
+        <v>-0.09682914092529474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01000873425120617</v>
+        <v>0.006471051942259357</v>
       </c>
       <c r="C14">
-        <v>0.04010410616909873</v>
+        <v>0.03143552067250803</v>
       </c>
       <c r="D14">
-        <v>0.007313261373027268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02442091780556833</v>
+      </c>
+      <c r="E14">
+        <v>0.05125572467906853</v>
+      </c>
+      <c r="F14">
+        <v>-0.07640065614613994</v>
+      </c>
+      <c r="G14">
+        <v>-0.08502251275751926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-5.192980500669021e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005419775680828016</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00748969146443443</v>
+      </c>
+      <c r="E15">
+        <v>0.004603831880723676</v>
+      </c>
+      <c r="F15">
+        <v>-0.006502049395972527</v>
+      </c>
+      <c r="G15">
+        <v>-0.007534885458082666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04038675603382685</v>
+        <v>0.03578166135289197</v>
       </c>
       <c r="C16">
-        <v>0.04820841956767011</v>
+        <v>0.04402132293907844</v>
       </c>
       <c r="D16">
-        <v>-0.004688425164552949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02470199827540896</v>
+      </c>
+      <c r="E16">
+        <v>0.04277287009083949</v>
+      </c>
+      <c r="F16">
+        <v>-0.05191102208422352</v>
+      </c>
+      <c r="G16">
+        <v>-0.05726808135642534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02625416243125197</v>
+        <v>0.01869684780069637</v>
       </c>
       <c r="C19">
-        <v>0.06100222999987732</v>
+        <v>0.04385888269766355</v>
       </c>
       <c r="D19">
-        <v>-0.09047507545923592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09118508910271832</v>
+      </c>
+      <c r="E19">
+        <v>0.1148515945018425</v>
+      </c>
+      <c r="F19">
+        <v>-0.06536490481406589</v>
+      </c>
+      <c r="G19">
+        <v>-0.0446907671897522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01902563672154205</v>
+        <v>0.01519207773476263</v>
       </c>
       <c r="C20">
-        <v>0.04770469884288348</v>
+        <v>0.03841485378157035</v>
       </c>
       <c r="D20">
-        <v>-0.009525842235975815</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03203912672571146</v>
+      </c>
+      <c r="E20">
+        <v>0.08058512132640427</v>
+      </c>
+      <c r="F20">
+        <v>-0.05314363151117808</v>
+      </c>
+      <c r="G20">
+        <v>-0.06716616814571612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01272599898749426</v>
+        <v>0.01074104534724617</v>
       </c>
       <c r="C21">
-        <v>0.05648635412251958</v>
+        <v>0.043419506262929</v>
       </c>
       <c r="D21">
-        <v>-0.03151081133237959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0539467997676033</v>
+      </c>
+      <c r="E21">
+        <v>0.126679830708621</v>
+      </c>
+      <c r="F21">
+        <v>-0.0898465242484861</v>
+      </c>
+      <c r="G21">
+        <v>-0.09995388876499722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001780439353910194</v>
+        <v>0.003861292184134237</v>
       </c>
       <c r="C22">
-        <v>0.001158937123176565</v>
+        <v>0.02774763927444283</v>
       </c>
       <c r="D22">
-        <v>-0.005592632349781738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04328844132891263</v>
+      </c>
+      <c r="E22">
+        <v>0.0492763168877128</v>
+      </c>
+      <c r="F22">
+        <v>0.01137680810827165</v>
+      </c>
+      <c r="G22">
+        <v>-0.05495255605166532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001786139797594732</v>
+        <v>0.003953395030417755</v>
       </c>
       <c r="C23">
-        <v>0.001177966033637322</v>
+        <v>0.02788615029676472</v>
       </c>
       <c r="D23">
-        <v>-0.005581844903709151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04283829349532743</v>
+      </c>
+      <c r="E23">
+        <v>0.04953683967236259</v>
+      </c>
+      <c r="F23">
+        <v>0.01164273734423323</v>
+      </c>
+      <c r="G23">
+        <v>-0.05493266558376133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03724776443447021</v>
+        <v>0.03617208442291757</v>
       </c>
       <c r="C24">
-        <v>0.05038135401436984</v>
+        <v>0.05204195055421922</v>
       </c>
       <c r="D24">
-        <v>-0.005910974229592335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02363532778022124</v>
+      </c>
+      <c r="E24">
+        <v>0.04405097498337376</v>
+      </c>
+      <c r="F24">
+        <v>-0.05376419983771891</v>
+      </c>
+      <c r="G24">
+        <v>-0.07066182725628403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04905608798813148</v>
+        <v>0.04410160179572726</v>
       </c>
       <c r="C25">
-        <v>0.06150019037523961</v>
+        <v>0.05587782649703038</v>
       </c>
       <c r="D25">
-        <v>0.004448956908977599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02201288939874102</v>
+      </c>
+      <c r="E25">
+        <v>0.03690676035259229</v>
+      </c>
+      <c r="F25">
+        <v>-0.04358384332099485</v>
+      </c>
+      <c r="G25">
+        <v>-0.07886022124270819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01696441564790962</v>
+        <v>0.01589749999182216</v>
       </c>
       <c r="C26">
-        <v>0.01806025361989109</v>
+        <v>0.016508958923906</v>
       </c>
       <c r="D26">
-        <v>-0.00103341221554535</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02399643380959477</v>
+      </c>
+      <c r="E26">
+        <v>0.05347380285314537</v>
+      </c>
+      <c r="F26">
+        <v>-0.05982905954578537</v>
+      </c>
+      <c r="G26">
+        <v>-0.05192573626728077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08461535939026037</v>
+        <v>0.1324286949528905</v>
       </c>
       <c r="C28">
-        <v>-0.2478002571334323</v>
+        <v>-0.2556858306504275</v>
       </c>
       <c r="D28">
-        <v>0.008769732809968303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02936586087406867</v>
+      </c>
+      <c r="E28">
+        <v>0.05653135106303157</v>
+      </c>
+      <c r="F28">
+        <v>-0.03118839157086005</v>
+      </c>
+      <c r="G28">
+        <v>-0.05271002810169104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007862276865976139</v>
+        <v>0.00645858691736827</v>
       </c>
       <c r="C29">
-        <v>0.03353698261987113</v>
+        <v>0.02835634873989887</v>
       </c>
       <c r="D29">
-        <v>0.01474510560127227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01599980619722342</v>
+      </c>
+      <c r="E29">
+        <v>0.05080970539604997</v>
+      </c>
+      <c r="F29">
+        <v>-0.06670852169768553</v>
+      </c>
+      <c r="G29">
+        <v>-0.08844648647023927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04659913894195275</v>
+        <v>0.04344963173832724</v>
       </c>
       <c r="C30">
-        <v>0.05386820714890907</v>
+        <v>0.05630219191623666</v>
       </c>
       <c r="D30">
-        <v>-0.0787281669495685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1004086785828228</v>
+      </c>
+      <c r="E30">
+        <v>0.080859602443626</v>
+      </c>
+      <c r="F30">
+        <v>-0.06965010859974471</v>
+      </c>
+      <c r="G30">
+        <v>-0.06847104075322993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06075680139226711</v>
+        <v>0.05874253708013293</v>
       </c>
       <c r="C31">
-        <v>0.04393652294414389</v>
+        <v>0.06051987443690028</v>
       </c>
       <c r="D31">
-        <v>0.04492293753926171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01927657745360182</v>
+      </c>
+      <c r="E31">
+        <v>0.07091337738492294</v>
+      </c>
+      <c r="F31">
+        <v>-0.02685214146324254</v>
+      </c>
+      <c r="G31">
+        <v>-0.0849638689766971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001415778974322777</v>
+        <v>0.006156556273122545</v>
       </c>
       <c r="C32">
-        <v>0.04323323040508726</v>
+        <v>0.03408694812661842</v>
       </c>
       <c r="D32">
-        <v>-0.05734594767935072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05270960294305271</v>
+      </c>
+      <c r="E32">
+        <v>0.05808321359467641</v>
+      </c>
+      <c r="F32">
+        <v>-0.06927259314326627</v>
+      </c>
+      <c r="G32">
+        <v>-0.06952457096249368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03412962649573083</v>
+        <v>0.02796261858574181</v>
       </c>
       <c r="C33">
-        <v>0.05753846125405537</v>
+        <v>0.05152300021015505</v>
       </c>
       <c r="D33">
-        <v>-0.03922067748796732</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06959959082962586</v>
+      </c>
+      <c r="E33">
+        <v>0.09243922679669622</v>
+      </c>
+      <c r="F33">
+        <v>-0.06763742295995973</v>
+      </c>
+      <c r="G33">
+        <v>-0.09963719807275725</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04630808098416779</v>
+        <v>0.04169761649820109</v>
       </c>
       <c r="C34">
-        <v>0.06451465451383191</v>
+        <v>0.06240405950094376</v>
       </c>
       <c r="D34">
-        <v>-0.019067876707427</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03797007665803605</v>
+      </c>
+      <c r="E34">
+        <v>0.01885299036883733</v>
+      </c>
+      <c r="F34">
+        <v>-0.05426494131878032</v>
+      </c>
+      <c r="G34">
+        <v>-0.07147702245613823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01706837125996101</v>
+        <v>0.01467406402110361</v>
       </c>
       <c r="C36">
-        <v>0.01761797097517756</v>
+        <v>0.01340421209591048</v>
       </c>
       <c r="D36">
-        <v>0.004646976371939594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02259084107526263</v>
+      </c>
+      <c r="E36">
+        <v>0.06165804188409173</v>
+      </c>
+      <c r="F36">
+        <v>-0.04975445928223567</v>
+      </c>
+      <c r="G36">
+        <v>-0.0685965562761487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03000287408981554</v>
+        <v>0.02366175276729818</v>
       </c>
       <c r="C38">
-        <v>0.03191587600545429</v>
+        <v>0.02394601424381036</v>
       </c>
       <c r="D38">
-        <v>0.01544630155778797</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02077532503588511</v>
+      </c>
+      <c r="E38">
+        <v>0.05217919101895635</v>
+      </c>
+      <c r="F38">
+        <v>-0.0415505287985485</v>
+      </c>
+      <c r="G38">
+        <v>-0.04739647157056207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04770979391510792</v>
+        <v>0.0419208172217515</v>
       </c>
       <c r="C39">
-        <v>0.06226865583608342</v>
+        <v>0.06209714411065927</v>
       </c>
       <c r="D39">
-        <v>-0.01964163486959087</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0503568092470708</v>
+      </c>
+      <c r="E39">
+        <v>0.05114136620357299</v>
+      </c>
+      <c r="F39">
+        <v>-0.07388356505656558</v>
+      </c>
+      <c r="G39">
+        <v>-0.06509305622481937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01206406423498997</v>
+        <v>0.01387441051754811</v>
       </c>
       <c r="C40">
-        <v>0.05467817537364807</v>
+        <v>0.039224767829539</v>
       </c>
       <c r="D40">
-        <v>-0.01718822025043084</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02805974249124303</v>
+      </c>
+      <c r="E40">
+        <v>0.09174550220975379</v>
+      </c>
+      <c r="F40">
+        <v>-0.0344138013742832</v>
+      </c>
+      <c r="G40">
+        <v>-0.1031398278577424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0227096455029378</v>
+        <v>0.01948642349994094</v>
       </c>
       <c r="C41">
-        <v>0.01293194712888965</v>
+        <v>0.009249072921473027</v>
       </c>
       <c r="D41">
-        <v>-0.0003683508927376601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01448769391689486</v>
+      </c>
+      <c r="E41">
+        <v>0.06242957200970235</v>
+      </c>
+      <c r="F41">
+        <v>-0.04654844823437164</v>
+      </c>
+      <c r="G41">
+        <v>-0.05545624823761916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04304435754050109</v>
+        <v>0.03077304920371214</v>
       </c>
       <c r="C43">
-        <v>0.03383301270891313</v>
+        <v>0.02445344588093845</v>
       </c>
       <c r="D43">
-        <v>-0.02121685789181756</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04225400289301295</v>
+      </c>
+      <c r="E43">
+        <v>0.07991007049668726</v>
+      </c>
+      <c r="F43">
+        <v>-0.03834782434494544</v>
+      </c>
+      <c r="G43">
+        <v>-0.08326048062212221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0153832826235908</v>
+        <v>0.01624709431434786</v>
       </c>
       <c r="C44">
-        <v>0.0680919205737413</v>
+        <v>0.04732000688046894</v>
       </c>
       <c r="D44">
-        <v>-0.007778263813409622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0311094841381415</v>
+      </c>
+      <c r="E44">
+        <v>0.08800910933425234</v>
+      </c>
+      <c r="F44">
+        <v>-0.0647295897106716</v>
+      </c>
+      <c r="G44">
+        <v>-0.04982775529186171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01047259446797474</v>
+        <v>0.01122378435534849</v>
       </c>
       <c r="C46">
-        <v>0.02833328583846945</v>
+        <v>0.02858501649051618</v>
       </c>
       <c r="D46">
-        <v>0.01547133197674003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01121961041998351</v>
+      </c>
+      <c r="E46">
+        <v>0.06043141226976177</v>
+      </c>
+      <c r="F46">
+        <v>-0.07956662472363212</v>
+      </c>
+      <c r="G46">
+        <v>-0.08818087581969937</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0899547660901681</v>
+        <v>0.09272505704362632</v>
       </c>
       <c r="C47">
-        <v>0.06761491465122417</v>
+        <v>0.07837846650721661</v>
       </c>
       <c r="D47">
-        <v>0.04489756424252429</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02572656896250798</v>
+      </c>
+      <c r="E47">
+        <v>0.067388848909311</v>
+      </c>
+      <c r="F47">
+        <v>-0.02509584869364539</v>
+      </c>
+      <c r="G47">
+        <v>-0.078000567585526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0186961077769586</v>
+        <v>0.01737714060097508</v>
       </c>
       <c r="C48">
-        <v>0.01490474052271167</v>
+        <v>0.01566047992005775</v>
       </c>
       <c r="D48">
-        <v>0.01753165943548211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01008313367439397</v>
+      </c>
+      <c r="E48">
+        <v>0.07371162798446441</v>
+      </c>
+      <c r="F48">
+        <v>-0.06311117184539233</v>
+      </c>
+      <c r="G48">
+        <v>-0.07627033279772948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0846271657222957</v>
+        <v>0.07230947643650693</v>
       </c>
       <c r="C50">
-        <v>0.08084214406287069</v>
+        <v>0.07410234408932019</v>
       </c>
       <c r="D50">
-        <v>0.0458224553879374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01110020516448859</v>
+      </c>
+      <c r="E50">
+        <v>0.07878927123188159</v>
+      </c>
+      <c r="F50">
+        <v>0.003346065084630703</v>
+      </c>
+      <c r="G50">
+        <v>-0.09355216244971926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01753560974733722</v>
+        <v>0.01093124907670258</v>
       </c>
       <c r="C51">
-        <v>0.05054941162634751</v>
+        <v>0.03226218236764425</v>
       </c>
       <c r="D51">
-        <v>-0.04081516633073855</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05505871497867749</v>
+      </c>
+      <c r="E51">
+        <v>0.05261221273582561</v>
+      </c>
+      <c r="F51">
+        <v>-0.0701217754079505</v>
+      </c>
+      <c r="G51">
+        <v>-0.06377679315519753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08494270709831471</v>
+        <v>0.09746280284804494</v>
       </c>
       <c r="C53">
-        <v>0.07707627183341154</v>
+        <v>0.08522134683075892</v>
       </c>
       <c r="D53">
-        <v>0.06543000395734368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06265980149500518</v>
+      </c>
+      <c r="E53">
+        <v>0.06485897709520885</v>
+      </c>
+      <c r="F53">
+        <v>-0.02402967391034109</v>
+      </c>
+      <c r="G53">
+        <v>-0.06875436639106688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03703304495110696</v>
+        <v>0.03005561185178031</v>
       </c>
       <c r="C54">
-        <v>0.03709290947959928</v>
+        <v>0.03208300018551169</v>
       </c>
       <c r="D54">
-        <v>0.005256541026802782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02322037486128419</v>
+      </c>
+      <c r="E54">
+        <v>0.05732731868020861</v>
+      </c>
+      <c r="F54">
+        <v>-0.06846127461659811</v>
+      </c>
+      <c r="G54">
+        <v>-0.08616463263389625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07972611787715882</v>
+        <v>0.08976267202822058</v>
       </c>
       <c r="C55">
-        <v>0.05379650774166227</v>
+        <v>0.06707898318669281</v>
       </c>
       <c r="D55">
-        <v>0.0685335556279998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06230640108590781</v>
+      </c>
+      <c r="E55">
+        <v>0.04219764035996187</v>
+      </c>
+      <c r="F55">
+        <v>-0.006865340420978573</v>
+      </c>
+      <c r="G55">
+        <v>-0.05174033439675778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1533999290410422</v>
+        <v>0.1554962294657243</v>
       </c>
       <c r="C56">
-        <v>0.08105002287055835</v>
+        <v>0.09950076212711662</v>
       </c>
       <c r="D56">
-        <v>0.0610772778830861</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0573933070532414</v>
+      </c>
+      <c r="E56">
+        <v>0.0391385994292802</v>
+      </c>
+      <c r="F56">
+        <v>0.01503352960471453</v>
+      </c>
+      <c r="G56">
+        <v>-0.02272064804933181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05060880413276617</v>
+        <v>0.03178680877066027</v>
       </c>
       <c r="C58">
-        <v>0.02217190831739181</v>
+        <v>0.02202353206017592</v>
       </c>
       <c r="D58">
-        <v>-0.5775932936606236</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3661402083783445</v>
+      </c>
+      <c r="E58">
+        <v>0.6382349072277875</v>
+      </c>
+      <c r="F58">
+        <v>0.3971121133268914</v>
+      </c>
+      <c r="G58">
+        <v>0.4701197115054643</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1244975802352246</v>
+        <v>0.1397976580880234</v>
       </c>
       <c r="C59">
-        <v>-0.2010471069822176</v>
+        <v>-0.1914654792070225</v>
       </c>
       <c r="D59">
-        <v>-0.02776756353113778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02972718158847891</v>
+      </c>
+      <c r="E59">
+        <v>0.02786431663688065</v>
+      </c>
+      <c r="F59">
+        <v>-0.03689314574049098</v>
+      </c>
+      <c r="G59">
+        <v>0.008497922977032736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3066135821059874</v>
+        <v>0.2768871703454373</v>
       </c>
       <c r="C60">
-        <v>0.1096462866670516</v>
+        <v>0.1065497280056243</v>
       </c>
       <c r="D60">
-        <v>-0.1822360537200702</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2607658671648408</v>
+      </c>
+      <c r="E60">
+        <v>-0.2368489098076525</v>
+      </c>
+      <c r="F60">
+        <v>0.08902233520856494</v>
+      </c>
+      <c r="G60">
+        <v>-0.04074593856917812</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04664491818582276</v>
+        <v>0.04322961858429138</v>
       </c>
       <c r="C61">
-        <v>0.06079049262772604</v>
+        <v>0.05752410742470163</v>
       </c>
       <c r="D61">
-        <v>-0.01310230445124621</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04043919930847542</v>
+      </c>
+      <c r="E61">
+        <v>0.05364725804913954</v>
+      </c>
+      <c r="F61">
+        <v>-0.05499022546407593</v>
+      </c>
+      <c r="G61">
+        <v>-0.07924341800371061</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01904276642766637</v>
+        <v>0.01720185852074468</v>
       </c>
       <c r="C63">
-        <v>0.0339248531560312</v>
+        <v>0.03054739211367221</v>
       </c>
       <c r="D63">
-        <v>0.02329354096495592</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01499182573952612</v>
+      </c>
+      <c r="E63">
+        <v>0.06392903800941158</v>
+      </c>
+      <c r="F63">
+        <v>-0.03461473486432543</v>
+      </c>
+      <c r="G63">
+        <v>-0.07698312688545252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05072746057786286</v>
+        <v>0.05645706561574949</v>
       </c>
       <c r="C64">
-        <v>0.04818150822074577</v>
+        <v>0.05765448295166708</v>
       </c>
       <c r="D64">
-        <v>-0.01371802129883211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.007309132285880828</v>
+      </c>
+      <c r="E64">
+        <v>0.04322825639436489</v>
+      </c>
+      <c r="F64">
+        <v>-0.05036652827511844</v>
+      </c>
+      <c r="G64">
+        <v>-0.05402156648908938</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08119252086050345</v>
+        <v>0.0659493664090342</v>
       </c>
       <c r="C65">
-        <v>0.02373279625620127</v>
+        <v>0.02437430643779091</v>
       </c>
       <c r="D65">
-        <v>-0.06177969971127703</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08703582138801146</v>
+      </c>
+      <c r="E65">
+        <v>0.0570484024595912</v>
+      </c>
+      <c r="F65">
+        <v>-0.005363412639420498</v>
+      </c>
+      <c r="G65">
+        <v>-0.0223415848616443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06306219473375373</v>
+        <v>0.05399144329405512</v>
       </c>
       <c r="C66">
-        <v>0.086157089537302</v>
+        <v>0.08009336616764084</v>
       </c>
       <c r="D66">
-        <v>-0.03955712553571205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0745024425766041</v>
+      </c>
+      <c r="E66">
+        <v>0.06170655837759928</v>
+      </c>
+      <c r="F66">
+        <v>-0.06574907441537742</v>
+      </c>
+      <c r="G66">
+        <v>-0.07847047731348078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05164182632399138</v>
+        <v>0.04513612332926128</v>
       </c>
       <c r="C67">
-        <v>0.03161039218305441</v>
+        <v>0.02832621790351172</v>
       </c>
       <c r="D67">
-        <v>0.02290156578834829</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.00484304347751397</v>
+      </c>
+      <c r="E67">
+        <v>0.02791462324625872</v>
+      </c>
+      <c r="F67">
+        <v>-0.02819548415765306</v>
+      </c>
+      <c r="G67">
+        <v>-0.03714475407999345</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1200717973633123</v>
+        <v>0.144885973316897</v>
       </c>
       <c r="C68">
-        <v>-0.2814744578303722</v>
+        <v>-0.2459043564379984</v>
       </c>
       <c r="D68">
-        <v>0.008112859054062256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0168438224131814</v>
+      </c>
+      <c r="E68">
+        <v>0.04273318300035255</v>
+      </c>
+      <c r="F68">
+        <v>-0.01082744727960627</v>
+      </c>
+      <c r="G68">
+        <v>-0.03090165384956083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09276754826329928</v>
+        <v>0.08802352525307836</v>
       </c>
       <c r="C69">
-        <v>0.0714456274267255</v>
+        <v>0.08946864495391207</v>
       </c>
       <c r="D69">
-        <v>0.05209061392860274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01722500444939638</v>
+      </c>
+      <c r="E69">
+        <v>0.05910681603863808</v>
+      </c>
+      <c r="F69">
+        <v>-0.0557833848128867</v>
+      </c>
+      <c r="G69">
+        <v>-0.07831464750595378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1117397026678294</v>
+        <v>0.1395968995640164</v>
       </c>
       <c r="C71">
-        <v>-0.2584703730746339</v>
+        <v>-0.2450820245061714</v>
       </c>
       <c r="D71">
-        <v>-0.01307156412793686</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0008881660917014644</v>
+      </c>
+      <c r="E71">
+        <v>0.05616129152798672</v>
+      </c>
+      <c r="F71">
+        <v>-0.01283470972141599</v>
+      </c>
+      <c r="G71">
+        <v>-0.06372370449737524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09794888037819122</v>
+        <v>0.1041897688317479</v>
       </c>
       <c r="C72">
-        <v>0.0434524846360439</v>
+        <v>0.05069259130965076</v>
       </c>
       <c r="D72">
-        <v>-0.007505242662840169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03252638189070023</v>
+      </c>
+      <c r="E72">
+        <v>0.02255410376223476</v>
+      </c>
+      <c r="F72">
+        <v>-0.02373706002200486</v>
+      </c>
+      <c r="G72">
+        <v>-0.08781750796677877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3954547236292396</v>
+        <v>0.3351857757693475</v>
       </c>
       <c r="C73">
-        <v>0.04742569629484988</v>
+        <v>0.07028559929884021</v>
       </c>
       <c r="D73">
-        <v>-0.4442830107491171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5181422958400804</v>
+      </c>
+      <c r="E73">
+        <v>-0.4360496120746135</v>
+      </c>
+      <c r="F73">
+        <v>0.2507065790557817</v>
+      </c>
+      <c r="G73">
+        <v>-0.01532717441649151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1077894395043016</v>
+        <v>0.1122430249794017</v>
       </c>
       <c r="C74">
-        <v>0.09371245528676637</v>
+        <v>0.09237120903176936</v>
       </c>
       <c r="D74">
-        <v>0.05102148365962439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.05052068246106938</v>
+      </c>
+      <c r="E74">
+        <v>0.0592773474631805</v>
+      </c>
+      <c r="F74">
+        <v>0.0158994375656071</v>
+      </c>
+      <c r="G74">
+        <v>-0.05368631259429682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2597347682946454</v>
+        <v>0.2628369479116153</v>
       </c>
       <c r="C75">
-        <v>0.08915533332930177</v>
+        <v>0.12174829891002</v>
       </c>
       <c r="D75">
-        <v>0.1371585662014316</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1511079750100137</v>
+      </c>
+      <c r="E75">
+        <v>0.02860311227737207</v>
+      </c>
+      <c r="F75">
+        <v>0.06751026623291034</v>
+      </c>
+      <c r="G75">
+        <v>0.05724341521456832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1174541300009677</v>
+        <v>0.1303459927794131</v>
       </c>
       <c r="C76">
-        <v>0.08078060884654227</v>
+        <v>0.09209344106157803</v>
       </c>
       <c r="D76">
-        <v>0.07941556277327758</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08411084673688249</v>
+      </c>
+      <c r="E76">
+        <v>0.07165282112254653</v>
+      </c>
+      <c r="F76">
+        <v>-0.01088991439107033</v>
+      </c>
+      <c r="G76">
+        <v>-0.03140903671148797</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07993722726863207</v>
+        <v>0.06552660328480465</v>
       </c>
       <c r="C77">
-        <v>0.04688464071792232</v>
+        <v>0.05959695272388452</v>
       </c>
       <c r="D77">
-        <v>-0.05082148885373011</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05097955142166959</v>
+      </c>
+      <c r="E77">
+        <v>0.09512267829014316</v>
+      </c>
+      <c r="F77">
+        <v>-0.1795498451989815</v>
+      </c>
+      <c r="G77">
+        <v>0.08960629243718879</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04944662901076827</v>
+        <v>0.04724410867054618</v>
       </c>
       <c r="C78">
-        <v>0.04054884350910463</v>
+        <v>0.0521721534233664</v>
       </c>
       <c r="D78">
-        <v>-0.03172871443316198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06068816160156038</v>
+      </c>
+      <c r="E78">
+        <v>0.06291558288934918</v>
+      </c>
+      <c r="F78">
+        <v>-0.05668984995895095</v>
+      </c>
+      <c r="G78">
+        <v>-0.06387111023936702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0001424744256108663</v>
+        <v>0.0326887717456586</v>
       </c>
       <c r="C79">
-        <v>-0.0001726112545070361</v>
+        <v>0.04574757047326993</v>
       </c>
       <c r="D79">
-        <v>-0.0005188576907035195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08147576128217744</v>
+      </c>
+      <c r="E79">
+        <v>0.06581335825545312</v>
+      </c>
+      <c r="F79">
+        <v>0.0191334127862377</v>
+      </c>
+      <c r="G79">
+        <v>-0.03053109850929607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04012989531023594</v>
+        <v>0.03097577211094221</v>
       </c>
       <c r="C80">
-        <v>0.04893478774791572</v>
+        <v>0.04931368107864768</v>
       </c>
       <c r="D80">
-        <v>-0.03289171963698571</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03990552561818923</v>
+      </c>
+      <c r="E80">
+        <v>0.01663302591735987</v>
+      </c>
+      <c r="F80">
+        <v>-0.0556508419514772</v>
+      </c>
+      <c r="G80">
+        <v>-0.001046120598330403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.143079227603175</v>
+        <v>0.1426554324574973</v>
       </c>
       <c r="C81">
-        <v>0.07221864449149745</v>
+        <v>0.09131182426422674</v>
       </c>
       <c r="D81">
-        <v>0.114461345888932</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1290545779417279</v>
+      </c>
+      <c r="E81">
+        <v>0.06956102774879265</v>
+      </c>
+      <c r="F81">
+        <v>0.02717788587598996</v>
+      </c>
+      <c r="G81">
+        <v>0.01540204183301386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1886038675225429</v>
+        <v>0.2238480023251081</v>
       </c>
       <c r="C82">
-        <v>0.08220416179414959</v>
+        <v>0.1484152306806887</v>
       </c>
       <c r="D82">
-        <v>0.2017712784565593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2528368885731441</v>
+      </c>
+      <c r="E82">
+        <v>-0.03829537315105837</v>
+      </c>
+      <c r="F82">
+        <v>-0.04630421843683868</v>
+      </c>
+      <c r="G82">
+        <v>-0.06490149143299961</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04058568501668658</v>
+        <v>0.02739303774472131</v>
       </c>
       <c r="C83">
-        <v>0.03128989048740203</v>
+        <v>0.044066295008832</v>
       </c>
       <c r="D83">
-        <v>-0.03794648035961742</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02959535090513977</v>
+      </c>
+      <c r="E83">
+        <v>0.02609284487717622</v>
+      </c>
+      <c r="F83">
+        <v>-0.03947689953083275</v>
+      </c>
+      <c r="G83">
+        <v>-0.007852175239709032</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002591958425053395</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001131797910735348</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001627572947052787</v>
+      </c>
+      <c r="E84">
+        <v>0.002785036444609203</v>
+      </c>
+      <c r="F84">
+        <v>0.0003658546830436333</v>
+      </c>
+      <c r="G84">
+        <v>-0.002156017235392778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2221041260141964</v>
+        <v>0.2049657835967316</v>
       </c>
       <c r="C85">
-        <v>0.09090936374385923</v>
+        <v>0.1090551901501213</v>
       </c>
       <c r="D85">
-        <v>0.1667117573938182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1298367705139329</v>
+      </c>
+      <c r="E85">
+        <v>-0.007971623545580493</v>
+      </c>
+      <c r="F85">
+        <v>0.103938741696023</v>
+      </c>
+      <c r="G85">
+        <v>0.0198616614444528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009820511867538495</v>
+        <v>0.01210573189644703</v>
       </c>
       <c r="C86">
-        <v>0.02835040954508111</v>
+        <v>0.01997966199278018</v>
       </c>
       <c r="D86">
-        <v>-0.04215750424695625</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05929296226771025</v>
+      </c>
+      <c r="E86">
+        <v>0.07968762083171134</v>
+      </c>
+      <c r="F86">
+        <v>-0.08407783644713959</v>
+      </c>
+      <c r="G86">
+        <v>-0.07571834564520405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02486648595733534</v>
+        <v>0.02566350693836808</v>
       </c>
       <c r="C87">
-        <v>0.003926786719150184</v>
+        <v>0.01224982542533787</v>
       </c>
       <c r="D87">
-        <v>-0.08197554522103954</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.079657940146543</v>
+      </c>
+      <c r="E87">
+        <v>0.1320341183630405</v>
+      </c>
+      <c r="F87">
+        <v>-0.07956399529203331</v>
+      </c>
+      <c r="G87">
+        <v>-0.01353913656800975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1111114477758142</v>
+        <v>0.09447423346318036</v>
       </c>
       <c r="C88">
-        <v>0.07052871939291988</v>
+        <v>0.06046911679774498</v>
       </c>
       <c r="D88">
-        <v>0.0225944116197854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.008844051774052406</v>
+      </c>
+      <c r="E88">
+        <v>0.05250932759531571</v>
+      </c>
+      <c r="F88">
+        <v>-0.05520544395358915</v>
+      </c>
+      <c r="G88">
+        <v>-0.04157150847966566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1764765829518128</v>
+        <v>0.2130764122525621</v>
       </c>
       <c r="C89">
-        <v>-0.3862643868094423</v>
+        <v>-0.3875792682958995</v>
       </c>
       <c r="D89">
-        <v>0.02111895099995775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01529613827094617</v>
+      </c>
+      <c r="E89">
+        <v>0.06727760395756885</v>
+      </c>
+      <c r="F89">
+        <v>-0.09069494616404489</v>
+      </c>
+      <c r="G89">
+        <v>-0.001296005776804574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1688058900883264</v>
+        <v>0.1931389962078456</v>
       </c>
       <c r="C90">
-        <v>-0.3377699732338447</v>
+        <v>-0.3134260840219582</v>
       </c>
       <c r="D90">
-        <v>0.03796623051717099</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.023991684213862</v>
+      </c>
+      <c r="E90">
+        <v>0.05651463965482987</v>
+      </c>
+      <c r="F90">
+        <v>-0.03028834200245175</v>
+      </c>
+      <c r="G90">
+        <v>-0.01479990786006362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1936607641386505</v>
+        <v>0.1903371523710451</v>
       </c>
       <c r="C91">
-        <v>0.1222203126472054</v>
+        <v>0.1385456936740747</v>
       </c>
       <c r="D91">
-        <v>0.1322031538656156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1310370424107017</v>
+      </c>
+      <c r="E91">
+        <v>0.0426617625313201</v>
+      </c>
+      <c r="F91">
+        <v>0.01779905036440055</v>
+      </c>
+      <c r="G91">
+        <v>0.009010300659795183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.156459337570694</v>
+        <v>0.1764717897691989</v>
       </c>
       <c r="C92">
-        <v>-0.2934406810440684</v>
+        <v>-0.297138744461563</v>
       </c>
       <c r="D92">
-        <v>0.01630586247918986</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01615278480024265</v>
+      </c>
+      <c r="E92">
+        <v>0.06159604087427532</v>
+      </c>
+      <c r="F92">
+        <v>-0.05388973138182056</v>
+      </c>
+      <c r="G92">
+        <v>-0.03114016289339018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1884236305912511</v>
+        <v>0.2142104954385392</v>
       </c>
       <c r="C93">
-        <v>-0.3424033130176785</v>
+        <v>-0.3237392196874627</v>
       </c>
       <c r="D93">
-        <v>0.03628929743495631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01904606510316597</v>
+      </c>
+      <c r="E93">
+        <v>0.03872461621387123</v>
+      </c>
+      <c r="F93">
+        <v>-0.004769393854481532</v>
+      </c>
+      <c r="G93">
+        <v>-0.04129393841761529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3419729730822445</v>
+        <v>0.3438584907972307</v>
       </c>
       <c r="C94">
-        <v>0.1226262827248335</v>
+        <v>0.1707343576458772</v>
       </c>
       <c r="D94">
-        <v>0.3765222736777363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4056922509798141</v>
+      </c>
+      <c r="E94">
+        <v>-0.01488410124200702</v>
+      </c>
+      <c r="F94">
+        <v>0.1064963406148977</v>
+      </c>
+      <c r="G94">
+        <v>0.3968769864839331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1253370397918182</v>
+        <v>0.09228243221925909</v>
       </c>
       <c r="C95">
-        <v>0.05223467270276482</v>
+        <v>0.05595627458370466</v>
       </c>
       <c r="D95">
-        <v>-0.2368218912145314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2103419749502786</v>
+      </c>
+      <c r="E95">
+        <v>-0.1292760517061711</v>
+      </c>
+      <c r="F95">
+        <v>-0.7214819605364385</v>
+      </c>
+      <c r="G95">
+        <v>0.548578340960012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1913313700277685</v>
+        <v>0.1861417013795001</v>
       </c>
       <c r="C98">
-        <v>0.02519249916599025</v>
+        <v>0.04802779117126523</v>
       </c>
       <c r="D98">
-        <v>-0.1558533189246256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2033963929419997</v>
+      </c>
+      <c r="E98">
+        <v>-0.1304188281941472</v>
+      </c>
+      <c r="F98">
+        <v>0.08841206432523392</v>
+      </c>
+      <c r="G98">
+        <v>-0.07959354213421037</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00764202151282402</v>
+        <v>0.006450070976378985</v>
       </c>
       <c r="C101">
-        <v>0.03356545466781933</v>
+        <v>0.02790655206339127</v>
       </c>
       <c r="D101">
-        <v>0.01450509272919989</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01588783990295568</v>
+      </c>
+      <c r="E101">
+        <v>0.05148120977474952</v>
+      </c>
+      <c r="F101">
+        <v>-0.06741788919727772</v>
+      </c>
+      <c r="G101">
+        <v>-0.08832186603389756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1235553018336438</v>
+        <v>0.1269559490105803</v>
       </c>
       <c r="C102">
-        <v>0.06704334567392517</v>
+        <v>0.09780792008714838</v>
       </c>
       <c r="D102">
-        <v>0.04852538413490318</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05876093834649199</v>
+      </c>
+      <c r="E102">
+        <v>-0.01577225252404856</v>
+      </c>
+      <c r="F102">
+        <v>-0.02368849073302528</v>
+      </c>
+      <c r="G102">
+        <v>0.009531015460327837</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
